--- a/raw_data/2015.xlsx
+++ b/raw_data/2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyjiang/Desktop/jenny-jiang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyjiang/Desktop/jenny-jiang/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,9 +69,6 @@
  age</t>
   </si>
   <si>
-    <t>Total employed</t>
-  </si>
-  <si>
     <t>Management, professional, and related occupations</t>
   </si>
   <si>
@@ -1768,6 +1765,9 @@
   </si>
   <si>
     <t>Miscellaneous vehicle and mobile equipment mechanics, installers, and repairers</t>
+  </si>
+  <si>
+    <t>Total, all occupations</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:J574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>576</v>
       </c>
       <c r="B3" s="12">
         <v>148834</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12">
         <v>57960</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="12">
         <v>24108</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="12">
         <v>16994</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="12">
         <v>1517</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12">
         <v>899</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="12">
         <v>13</v>
@@ -2404,12 +2404,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12">
         <v>67</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12">
         <v>1006</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12">
         <v>61</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12">
         <v>195</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12">
         <v>652</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12">
         <v>1197</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="12">
         <v>23</v>
@@ -2628,12 +2628,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="12">
         <v>290</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="12">
         <v>41</v>
@@ -2692,12 +2692,12 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="12">
         <v>280</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="12">
         <v>198</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="12">
         <v>263</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="12">
         <v>1052</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="12">
         <v>737</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="12">
         <v>928</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="12">
         <v>110</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="12">
         <v>1192</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="12">
         <v>15</v>
@@ -2980,12 +2980,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="12">
         <v>23</v>
@@ -3012,12 +3012,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="12">
         <v>159</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="12">
         <v>636</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12">
         <v>25</v>
@@ -3108,12 +3108,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="12">
         <v>24</v>
@@ -3140,12 +3140,12 @@
         <v>4</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="12">
         <v>685</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="12">
         <v>378</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="12">
         <v>10</v>
@@ -3236,12 +3236,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="12">
         <v>4315</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="12">
         <v>7114</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="12">
         <v>46</v>
@@ -3332,12 +3332,12 @@
         <v>3</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="12">
         <v>10</v>
@@ -3364,12 +3364,12 @@
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="12">
         <v>190</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="12">
         <v>280</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="12">
         <v>321</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="12">
         <v>246</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="12">
         <v>112</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="12">
         <v>662</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="12">
         <v>68</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="12">
         <v>118</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="12">
         <v>117</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="12">
         <v>848</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="12">
         <v>159</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="12">
         <v>77</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="12">
         <v>261</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="12">
         <v>213</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="12">
         <v>1732</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="12">
         <v>76</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="12">
         <v>44</v>
@@ -3908,12 +3908,12 @@
         <v>4</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="12">
         <v>21</v>
@@ -3940,12 +3940,12 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="12">
         <v>322</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="12">
         <v>498</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="12">
         <v>107</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="12">
         <v>15</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="12">
         <v>332</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="12">
         <v>58</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="12">
         <v>109</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="12">
         <v>71</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="12">
         <v>33852</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="12">
         <v>4369</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="12">
         <v>24</v>
@@ -4292,12 +4292,12 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="12">
         <v>552</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="12">
         <v>70</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="12">
         <v>480</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="12">
         <v>1353</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="12">
         <v>204</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="12">
         <v>475</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="12">
         <v>93</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="12">
         <v>218</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="12">
         <v>114</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="12">
         <v>547</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="12">
         <v>21</v>
@@ -4644,12 +4644,12 @@
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="12">
         <v>6</v>
@@ -4676,12 +4676,12 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="12">
         <v>123</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="12">
         <v>86</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="12">
         <v>4</v>
@@ -4772,12 +4772,12 @@
         <v>1</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="12">
         <v>2954</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="12">
         <v>203</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="12">
         <v>38</v>
@@ -4868,12 +4868,12 @@
         <v>2</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="12">
         <v>138</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="12">
         <v>6</v>
@@ -4932,12 +4932,12 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="12">
         <v>16</v>
@@ -4964,12 +4964,12 @@
         <v>1</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="12">
         <v>84</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="12">
         <v>360</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="12">
         <v>72</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="12">
         <v>302</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="12">
         <v>40</v>
@@ -5124,12 +5124,12 @@
         <v>2</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="12">
         <v>214</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="12">
         <v>11</v>
@@ -5188,12 +5188,12 @@
         <v>1</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="12">
         <v>40</v>
@@ -5220,12 +5220,12 @@
         <v>2</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="12">
         <v>323</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="12">
         <v>15</v>
@@ -5284,12 +5284,12 @@
         <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="12">
         <v>6</v>
@@ -5316,12 +5316,12 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="12">
         <v>44</v>
@@ -5348,12 +5348,12 @@
         <v>1</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="12">
         <v>440</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="12">
         <v>133</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="12">
         <v>403</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="12">
         <v>65</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="12">
         <v>1404</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="12">
         <v>25</v>
@@ -5540,12 +5540,12 @@
         <v>1</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="12">
         <v>86</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="12">
         <v>25</v>
@@ -5604,12 +5604,12 @@
         <v>1</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" s="12">
         <v>157</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="12">
         <v>1</v>
@@ -5668,12 +5668,12 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="12">
         <v>19</v>
@@ -5700,12 +5700,12 @@
         <v>4</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="12">
         <v>12</v>
@@ -5732,12 +5732,12 @@
         <v>1</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" s="12">
         <v>99</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="12">
         <v>92</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="12">
         <v>232</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" s="12">
         <v>34</v>
@@ -5860,12 +5860,12 @@
         <v>2</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" s="12">
         <v>0</v>
@@ -5892,12 +5892,12 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" s="12">
         <v>193</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="12">
         <v>1</v>
@@ -5956,12 +5956,12 @@
         <v>1</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" s="12">
         <v>25</v>
@@ -5988,12 +5988,12 @@
         <v>2</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="12">
         <v>45</v>
@@ -6020,12 +6020,12 @@
         <v>4</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" s="12">
         <v>25</v>
@@ -6052,12 +6052,12 @@
         <v>1</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" s="12">
         <v>18</v>
@@ -6084,12 +6084,12 @@
         <v>1</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" s="12">
         <v>82</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" s="12">
         <v>21</v>
@@ -6148,12 +6148,12 @@
         <v>2</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="12">
         <v>3</v>
@@ -6180,12 +6180,12 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="12">
         <v>4</v>
@@ -6212,12 +6212,12 @@
         <v>1</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="12">
         <v>203</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="12">
         <v>2596</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="12">
         <v>802</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" s="12">
         <v>765</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" s="12">
         <v>99</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" s="12">
         <v>194</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" s="12">
         <v>117</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137" s="12">
         <v>469</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" s="12">
         <v>78</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" s="12">
         <v>73</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" s="12">
         <v>1803</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" s="12">
         <v>1160</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" s="12">
         <v>13</v>
@@ -6628,12 +6628,12 @@
         <v>1</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" s="12">
         <v>58</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" s="12">
         <v>400</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" s="12">
         <v>172</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" s="12">
         <v>8908</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" s="12">
         <v>1341</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148" s="12">
         <v>695</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" s="12">
         <v>3152</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="12">
         <v>1144</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" s="12">
         <v>330</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="12">
         <v>876</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" s="12">
         <v>53</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" s="12">
         <v>166</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="12">
         <v>31</v>
@@ -7044,12 +7044,12 @@
         <v>2</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="12">
         <v>960</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" s="12">
         <v>161</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" s="12">
         <v>3051</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="12">
         <v>222</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" s="12">
         <v>899</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" s="12">
         <v>49</v>
@@ -7236,12 +7236,12 @@
         <v>4</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162" s="12">
         <v>169</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B163" s="12">
         <v>296</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" s="12">
         <v>19</v>
@@ -7332,12 +7332,12 @@
         <v>1</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" s="12">
         <v>202</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" s="12">
         <v>41</v>
@@ -7396,12 +7396,12 @@
         <v>4</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" s="12">
         <v>55</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" s="12">
         <v>68</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169" s="12">
         <v>147</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" s="12">
         <v>160</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" s="12">
         <v>68</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B172" s="12">
         <v>208</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" s="12">
         <v>84</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" s="12">
         <v>119</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" s="12">
         <v>180</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" s="12">
         <v>64</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177" s="12">
         <v>2</v>
@@ -7748,12 +7748,12 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" s="12">
         <v>8766</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" s="12">
         <v>75</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" s="12">
         <v>196</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B181" s="12">
         <v>108</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" s="12">
         <v>39</v>
@@ -7908,12 +7908,12 @@
         <v>3</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B183" s="12">
         <v>282</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" s="12">
         <v>1007</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" s="12">
         <v>74</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" s="12">
         <v>15</v>
@@ -8036,12 +8036,12 @@
         <v>1</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" s="12">
         <v>16</v>
@@ -8068,12 +8068,12 @@
         <v>1</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" s="12">
         <v>116</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" s="12">
         <v>274</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" s="12">
         <v>13</v>
@@ -8164,12 +8164,12 @@
         <v>1</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" s="12">
         <v>11</v>
@@ -8196,12 +8196,12 @@
         <v>0</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" s="12">
         <v>108</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" s="12">
         <v>158</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" s="12">
         <v>5</v>
@@ -8292,12 +8292,12 @@
         <v>0</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" s="12">
         <v>189</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" s="12">
         <v>90</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" s="12">
         <v>2973</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" s="12">
         <v>27</v>
@@ -8420,12 +8420,12 @@
         <v>1</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" s="12">
         <v>7</v>
@@ -8452,12 +8452,12 @@
         <v>0</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" s="12">
         <v>149</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B201" s="12">
         <v>17</v>
@@ -8516,12 +8516,12 @@
         <v>3</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" s="12">
         <v>327</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" s="12">
         <v>177</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="12">
         <v>322</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B205" s="12">
         <v>220</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" s="12">
         <v>626</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" s="12">
         <v>670</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B208" s="12">
         <v>200</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B209" s="12">
         <v>52</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210" s="12">
         <v>117</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" s="12">
         <v>108</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213" s="12">
         <v>25896</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214" s="12">
         <v>3514</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215" s="12">
         <v>2032</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216" s="12">
         <v>23</v>
@@ -8964,12 +8964,12 @@
         <v>1</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217" s="12">
         <v>68</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218" s="12">
         <v>189</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219" s="12">
         <v>286</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220" s="12">
         <v>524</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="12">
         <v>42</v>
@@ -9124,12 +9124,12 @@
         <v>5</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222" s="12">
         <v>36</v>
@@ -9156,12 +9156,12 @@
         <v>2</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223" s="12">
         <v>38</v>
@@ -9188,12 +9188,12 @@
         <v>1</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224" s="12">
         <v>106</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225" s="12">
         <v>170</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B226" s="12">
         <v>3109</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="12">
         <v>52</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228" s="12">
         <v>110</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B229" s="12">
         <v>49</v>
@@ -9380,12 +9380,12 @@
         <v>1</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B230" s="12">
         <v>81</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B231" s="12">
         <v>293</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232" s="12">
         <v>19</v>
@@ -9476,12 +9476,12 @@
         <v>1</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B233" s="12">
         <v>443</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B234" s="12">
         <v>144</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
@@ -9572,12 +9572,12 @@
         <v>0</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B236" s="12">
         <v>10</v>
@@ -9604,12 +9604,12 @@
         <v>1</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B237" s="12">
         <v>688</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B238" s="12">
         <v>1</v>
@@ -9668,12 +9668,12 @@
         <v>0</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B239" s="12">
         <v>5</v>
@@ -9700,12 +9700,12 @@
         <v>0</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B240" s="12">
         <v>100</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B241" s="12">
         <v>869</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B242" s="12">
         <v>57</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B243" s="12">
         <v>38</v>
@@ -9828,12 +9828,12 @@
         <v>1</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B244" s="12">
         <v>144</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B245" s="12">
         <v>8142</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B246" s="12">
         <v>415</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B247" s="12">
         <v>527</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B248" s="12">
         <v>2091</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249" s="12">
         <v>858</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B250" s="12">
         <v>451</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B251" s="12">
         <v>420</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B252" s="12">
         <v>233</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B253" s="12">
         <v>2057</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254" s="12">
         <v>190</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B255" s="12">
         <v>321</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B256" s="12">
         <v>281</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B257" s="12">
         <v>293</v>
@@ -10281,7 +10281,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B258" s="12">
         <v>5</v>
@@ -10308,12 +10308,12 @@
         <v>2</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B259" s="12">
         <v>5716</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B260" s="12">
         <v>293</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B261" s="12">
         <v>215</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B262" s="12">
         <v>2263</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B263" s="12">
         <v>1510</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B264" s="12">
         <v>85</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B265" s="12">
         <v>1349</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B266" s="12">
         <v>5415</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B267" s="12">
         <v>168</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B268" s="12">
         <v>185</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B269" s="12">
         <v>54</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B270" s="12">
         <v>252</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B271" s="12">
         <v>89</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
@@ -10756,12 +10756,12 @@
         <v>1</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B273" s="12">
         <v>44</v>
@@ -10788,12 +10788,12 @@
         <v>5</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B274" s="12">
         <v>221</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B275" s="12">
         <v>9</v>
@@ -10852,12 +10852,12 @@
         <v>3</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B276" s="12">
         <v>35</v>
@@ -10884,12 +10884,12 @@
         <v>5</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B277" s="12">
         <v>116</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B278" s="12">
         <v>707</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B279" s="12">
         <v>324</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B280" s="12">
         <v>76</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B281" s="12">
         <v>54</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B282" s="12">
         <v>1206</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B283" s="12">
         <v>1251</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B284" s="12">
         <v>429</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B285" s="12">
         <v>38</v>
@@ -11172,12 +11172,12 @@
         <v>1</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B286" s="12">
         <v>149</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B288" s="12">
         <v>33598</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B289" s="12">
         <v>15700</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B290" s="12">
         <v>3245</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B291" s="12">
         <v>1242</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B292" s="12">
         <v>3246</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B293" s="12">
         <v>109</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B294" s="12">
         <v>124</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B295" s="12">
         <v>3346</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B296" s="12">
         <v>200</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B297" s="12">
         <v>615</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B298" s="12">
         <v>258</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B299" s="12">
         <v>89</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B300" s="12">
         <v>479</v>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B301" s="12">
         <v>1281</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B302" s="12">
         <v>68</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B303" s="12">
         <v>906</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B304" s="12">
         <v>42</v>
@@ -11748,12 +11748,12 @@
         <v>3</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B305" s="12">
         <v>60</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B306" s="12">
         <v>156</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B307" s="12">
         <v>236</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B308" s="12">
         <v>17897</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B309" s="12">
         <v>1474</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B310" s="12">
         <v>16</v>
@@ -11940,12 +11940,12 @@
         <v>2</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B311" s="12">
         <v>34</v>
@@ -11972,12 +11972,12 @@
         <v>1</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B312" s="12">
         <v>5</v>
@@ -12004,12 +12004,12 @@
         <v>0</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B313" s="12">
         <v>168</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B314" s="12">
         <v>473</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B315" s="12">
         <v>1182</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B316" s="12">
         <v>14</v>
@@ -12132,12 +12132,12 @@
         <v>0</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B317" s="12">
         <v>138</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B318" s="12">
         <v>40</v>
@@ -12196,12 +12196,12 @@
         <v>2</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B319" s="12">
         <v>357</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B320" s="12">
         <v>69</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B321" s="12">
         <v>3</v>
@@ -12292,12 +12292,12 @@
         <v>0</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B322" s="12">
         <v>3</v>
@@ -12324,12 +12324,12 @@
         <v>0</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B323" s="12">
         <v>71</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B324" s="12">
         <v>52</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B325" s="12">
         <v>2271</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B326" s="12">
         <v>74</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B327" s="12">
         <v>203</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B328" s="12">
         <v>156</v>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B329" s="12">
         <v>151</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B330" s="12">
         <v>98</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B331" s="12">
         <v>139</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B332" s="12">
         <v>26</v>
@@ -12644,12 +12644,12 @@
         <v>0</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B333" s="12">
         <v>84</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B334" s="12">
         <v>59</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B335" s="12">
         <v>1232</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B336" s="12">
         <v>111</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B337" s="12">
         <v>127</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B338" s="12">
         <v>21</v>
@@ -12836,12 +12836,12 @@
         <v>0</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B339" s="12">
         <v>235</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B340" s="12">
         <v>277</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B341" s="12">
         <v>41</v>
@@ -12932,12 +12932,12 @@
         <v>1</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B342" s="12">
         <v>130</v>
@@ -12969,7 +12969,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B343" s="12">
         <v>320</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="344" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B344" s="12">
         <v>64</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B345" s="12">
         <v>286</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B346" s="12">
         <v>575</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B347" s="12">
         <v>1529</v>
@@ -13129,7 +13129,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B348" s="12">
         <v>72</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B349" s="12">
         <v>2870</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B350" s="12">
         <v>69</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B351" s="12">
         <v>281</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B352" s="12">
         <v>103</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B353" s="12">
         <v>1</v>
@@ -13316,12 +13316,12 @@
         <v>1</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B354" s="12">
         <v>287</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B355" s="12">
         <v>81</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B356" s="12">
         <v>1288</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B357" s="12">
         <v>37</v>
@@ -13444,12 +13444,12 @@
         <v>1</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B358" s="12">
         <v>8</v>
@@ -13476,12 +13476,12 @@
         <v>1</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B359" s="12">
         <v>17</v>
@@ -13508,12 +13508,12 @@
         <v>0</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B360" s="12">
         <v>477</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B362" s="12">
         <v>13733</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B363" s="12">
         <v>1073</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B364" s="12">
         <v>54</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B365" s="12">
         <v>18</v>
@@ -13668,12 +13668,12 @@
         <v>1</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B366" s="12">
         <v>8</v>
@@ -13700,12 +13700,12 @@
         <v>1</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B367" s="12">
         <v>97</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B368" s="12">
         <v>789</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B369" s="12">
         <v>39</v>
@@ -13796,12 +13796,12 @@
         <v>0</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B370" s="12">
         <v>0</v>
@@ -13828,12 +13828,12 @@
         <v>0</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B371" s="12">
         <v>18</v>
@@ -13860,12 +13860,12 @@
         <v>1</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B372" s="12">
         <v>51</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B373" s="12">
         <v>7652</v>
@@ -13929,7 +13929,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B374" s="12">
         <v>712</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B375" s="12">
         <v>20</v>
@@ -13988,12 +13988,12 @@
         <v>0</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B376" s="12">
         <v>172</v>
@@ -14025,7 +14025,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B377" s="12">
         <v>1281</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B378" s="12">
         <v>156</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B379" s="12">
         <v>54</v>
@@ -14121,7 +14121,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B380" s="12">
         <v>1649</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B381" s="12">
         <v>12</v>
@@ -14180,12 +14180,12 @@
         <v>0</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B382" s="12">
         <v>2</v>
@@ -14212,12 +14212,12 @@
         <v>0</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B383" s="12">
         <v>357</v>
@@ -14249,7 +14249,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B384" s="12">
         <v>151</v>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B385" s="12">
         <v>773</v>
@@ -14313,7 +14313,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B386" s="12">
         <v>47</v>
@@ -14340,12 +14340,12 @@
         <v>1</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B387" s="12">
         <v>49</v>
@@ -14372,12 +14372,12 @@
         <v>0</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B388" s="12">
         <v>572</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B389" s="12">
         <v>1</v>
@@ -14436,12 +14436,12 @@
         <v>0</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B390" s="12">
         <v>573</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B391" s="12">
         <v>28</v>
@@ -14500,12 +14500,12 @@
         <v>1</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B392" s="12">
         <v>10</v>
@@ -14532,12 +14532,12 @@
         <v>0</v>
       </c>
       <c r="J392" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B393" s="12">
         <v>221</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B394" s="12">
         <v>122</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B395" s="12">
         <v>58</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B396" s="12">
         <v>11</v>
@@ -14660,12 +14660,12 @@
         <v>1</v>
       </c>
       <c r="J396" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B397" s="12">
         <v>52</v>
@@ -14697,7 +14697,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B398" s="12">
         <v>90</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B399" s="12">
         <v>30</v>
@@ -14756,12 +14756,12 @@
         <v>0</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B400" s="12">
         <v>34</v>
@@ -14788,12 +14788,12 @@
         <v>2</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B401" s="12">
         <v>42</v>
@@ -14820,12 +14820,12 @@
         <v>0</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B402" s="12">
         <v>103</v>
@@ -14857,7 +14857,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B403" s="12">
         <v>11</v>
@@ -14884,12 +14884,12 @@
         <v>0</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B404" s="12">
         <v>12</v>
@@ -14916,12 +14916,12 @@
         <v>0</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B405" s="12">
         <v>32</v>
@@ -14948,12 +14948,12 @@
         <v>1</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B406" s="12">
         <v>34</v>
@@ -14980,12 +14980,12 @@
         <v>1</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B407" s="12">
         <v>29</v>
@@ -15012,12 +15012,12 @@
         <v>1</v>
       </c>
       <c r="J407" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B408" s="12">
         <v>9</v>
@@ -15044,12 +15044,12 @@
         <v>1</v>
       </c>
       <c r="J408" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B409" s="12">
         <v>67</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B410" s="12">
         <v>2</v>
@@ -15108,12 +15108,12 @@
         <v>0</v>
       </c>
       <c r="J410" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B411" s="12">
         <v>9</v>
@@ -15140,12 +15140,12 @@
         <v>1</v>
       </c>
       <c r="J411" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B412" s="12">
         <v>4</v>
@@ -15172,12 +15172,12 @@
         <v>0</v>
       </c>
       <c r="J412" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B413" s="12">
         <v>64</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B414" s="12">
         <v>5008</v>
@@ -15241,7 +15241,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B415" s="12">
         <v>262</v>
@@ -15273,7 +15273,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B416" s="12">
         <v>241</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B417" s="12">
         <v>158</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B418" s="12">
         <v>5</v>
@@ -15364,12 +15364,12 @@
         <v>0</v>
       </c>
       <c r="J418" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B419" s="12">
         <v>23</v>
@@ -15396,12 +15396,12 @@
         <v>0</v>
       </c>
       <c r="J419" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B420" s="12">
         <v>1</v>
@@ -15428,12 +15428,12 @@
         <v>0</v>
       </c>
       <c r="J420" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B421" s="12">
         <v>20</v>
@@ -15460,12 +15460,12 @@
         <v>0</v>
       </c>
       <c r="J421" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B422" s="12">
         <v>18</v>
@@ -15492,12 +15492,12 @@
         <v>0</v>
       </c>
       <c r="J422" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B423" s="12">
         <v>38</v>
@@ -15524,12 +15524,12 @@
         <v>2</v>
       </c>
       <c r="J423" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B424" s="12">
         <v>74</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B425" s="12">
         <v>140</v>
@@ -15593,7 +15593,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B426" s="12">
         <v>154</v>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B427" s="12">
         <v>22</v>
@@ -15652,12 +15652,12 @@
         <v>2</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B428" s="12">
         <v>924</v>
@@ -15689,7 +15689,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B429" s="12">
         <v>345</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B430" s="12">
         <v>233</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B431" s="12">
         <v>54</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B432" s="12">
         <v>81</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" s="12">
         <v>29</v>
@@ -15844,12 +15844,12 @@
         <v>1</v>
       </c>
       <c r="J433" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" s="12">
         <v>408</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" s="12">
         <v>53</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" s="12">
         <v>425</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B437" s="12">
         <v>527</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B438" s="12">
         <v>29</v>
@@ -16004,12 +16004,12 @@
         <v>2</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B439" s="12">
         <v>57</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B440" s="12">
         <v>119</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B441" s="12">
         <v>177</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B442" s="12">
         <v>66</v>
@@ -16137,7 +16137,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B443" s="12">
         <v>4</v>
@@ -16164,12 +16164,12 @@
         <v>0</v>
       </c>
       <c r="J443" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B444" s="12">
         <v>48</v>
@@ -16196,12 +16196,12 @@
         <v>2</v>
       </c>
       <c r="J444" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B445" s="12">
         <v>1</v>
@@ -16228,12 +16228,12 @@
         <v>0</v>
       </c>
       <c r="J445" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B446" s="12">
         <v>21</v>
@@ -16260,12 +16260,12 @@
         <v>2</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B447" s="12">
         <v>5</v>
@@ -16292,12 +16292,12 @@
         <v>0</v>
       </c>
       <c r="J447" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B448" s="12">
         <v>10</v>
@@ -16324,12 +16324,12 @@
         <v>0</v>
       </c>
       <c r="J448" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B449" s="12">
         <v>8</v>
@@ -16356,12 +16356,12 @@
         <v>0</v>
       </c>
       <c r="J449" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B450" s="12">
         <v>28</v>
@@ -16388,12 +16388,12 @@
         <v>0</v>
       </c>
       <c r="J450" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B451" s="12">
         <v>200</v>
@@ -16425,7 +16425,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B453" s="12">
         <v>17647</v>
@@ -16457,7 +16457,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B454" s="12">
         <v>8522</v>
@@ -16489,7 +16489,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" s="12">
         <v>817</v>
@@ -16521,7 +16521,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B456" s="12">
         <v>14</v>
@@ -16548,12 +16548,12 @@
         <v>1</v>
       </c>
       <c r="J456" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B457" s="12">
         <v>133</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B458" s="12">
         <v>11</v>
@@ -16612,12 +16612,12 @@
         <v>0</v>
       </c>
       <c r="J458" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B459" s="12">
         <v>32</v>
@@ -16644,12 +16644,12 @@
         <v>1</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B460" s="12">
         <v>1026</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B461" s="12">
         <v>231</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B462" s="12">
         <v>302</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B463" s="12">
         <v>14</v>
@@ -16772,12 +16772,12 @@
         <v>0</v>
       </c>
       <c r="J463" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B464" s="12">
         <v>101</v>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B465" s="12">
         <v>13</v>
@@ -16836,12 +16836,12 @@
         <v>0</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B466" s="12">
         <v>135</v>
@@ -16873,7 +16873,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B467" s="12">
         <v>88</v>
@@ -16905,7 +16905,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B468" s="12">
         <v>9</v>
@@ -16932,12 +16932,12 @@
         <v>0</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B469" s="12">
         <v>8</v>
@@ -16964,12 +16964,12 @@
         <v>0</v>
       </c>
       <c r="J469" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B470" s="12">
         <v>15</v>
@@ -16996,12 +16996,12 @@
         <v>0</v>
       </c>
       <c r="J470" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B471" s="12">
         <v>82</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B472" s="12">
         <v>5</v>
@@ -17060,12 +17060,12 @@
         <v>0</v>
       </c>
       <c r="J472" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B473" s="12">
         <v>51</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B474" s="12">
         <v>11</v>
@@ -17124,12 +17124,12 @@
         <v>0</v>
       </c>
       <c r="J474" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B475" s="12">
         <v>0</v>
@@ -17156,12 +17156,12 @@
         <v>0</v>
       </c>
       <c r="J475" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B476" s="12">
         <v>363</v>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B477" s="12">
         <v>30</v>
@@ -17220,12 +17220,12 @@
         <v>2</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B478" s="12">
         <v>5</v>
@@ -17252,12 +17252,12 @@
         <v>0</v>
       </c>
       <c r="J478" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B479" s="12">
         <v>46</v>
@@ -17284,12 +17284,12 @@
         <v>1</v>
       </c>
       <c r="J479" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B480" s="12">
         <v>1</v>
@@ -17316,12 +17316,12 @@
         <v>0</v>
       </c>
       <c r="J480" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B481" s="12">
         <v>47</v>
@@ -17348,12 +17348,12 @@
         <v>3</v>
       </c>
       <c r="J481" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B482" s="12">
         <v>615</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="483" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B483" s="12">
         <v>5</v>
@@ -17412,12 +17412,12 @@
         <v>0</v>
       </c>
       <c r="J483" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B484" s="12">
         <v>5</v>
@@ -17444,12 +17444,12 @@
         <v>0</v>
       </c>
       <c r="J484" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B485" s="12">
         <v>23</v>
@@ -17476,12 +17476,12 @@
         <v>0</v>
       </c>
       <c r="J485" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B486" s="12">
         <v>6</v>
@@ -17508,12 +17508,12 @@
         <v>0</v>
       </c>
       <c r="J486" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B487" s="12">
         <v>376</v>
@@ -17545,7 +17545,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B488" s="12">
         <v>22</v>
@@ -17572,12 +17572,12 @@
         <v>1</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B489" s="12">
         <v>180</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B490" s="12">
         <v>20</v>
@@ -17636,12 +17636,12 @@
         <v>5</v>
       </c>
       <c r="J490" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B491" s="12">
         <v>192</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B492" s="12">
         <v>34</v>
@@ -17700,12 +17700,12 @@
         <v>1</v>
       </c>
       <c r="J492" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B493" s="12">
         <v>196</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B494" s="12">
         <v>7</v>
@@ -17764,12 +17764,12 @@
         <v>0</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B495" s="12">
         <v>2</v>
@@ -17796,12 +17796,12 @@
         <v>1</v>
       </c>
       <c r="J495" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B496" s="12">
         <v>83</v>
@@ -17833,7 +17833,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B497" s="12">
         <v>3</v>
@@ -17860,12 +17860,12 @@
         <v>0</v>
       </c>
       <c r="J497" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B498" s="12">
         <v>9</v>
@@ -17892,12 +17892,12 @@
         <v>1</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B499" s="12">
         <v>9</v>
@@ -17924,12 +17924,12 @@
         <v>0</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B500" s="12">
         <v>9</v>
@@ -17956,12 +17956,12 @@
         <v>1</v>
       </c>
       <c r="J500" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B501" s="12">
         <v>0</v>
@@ -17988,12 +17988,12 @@
         <v>0</v>
       </c>
       <c r="J501" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B502" s="12">
         <v>4</v>
@@ -18020,12 +18020,12 @@
         <v>1</v>
       </c>
       <c r="J502" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B503" s="12">
         <v>40</v>
@@ -18052,12 +18052,12 @@
         <v>1</v>
       </c>
       <c r="J503" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B504" s="12">
         <v>16</v>
@@ -18084,12 +18084,12 @@
         <v>1</v>
       </c>
       <c r="J504" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B505" s="12">
         <v>60</v>
@@ -18121,7 +18121,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B506" s="12">
         <v>15</v>
@@ -18148,12 +18148,12 @@
         <v>2</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B507" s="12">
         <v>1</v>
@@ -18180,12 +18180,12 @@
         <v>0</v>
       </c>
       <c r="J507" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B508" s="12">
         <v>29</v>
@@ -18212,12 +18212,12 @@
         <v>1</v>
       </c>
       <c r="J508" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B509" s="12">
         <v>24</v>
@@ -18244,12 +18244,12 @@
         <v>1</v>
       </c>
       <c r="J509" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B510" s="12">
         <v>31</v>
@@ -18276,12 +18276,12 @@
         <v>3</v>
       </c>
       <c r="J510" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B511" s="12">
         <v>33</v>
@@ -18308,12 +18308,12 @@
         <v>1</v>
       </c>
       <c r="J511" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B512" s="12">
         <v>81</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B513" s="12">
         <v>89</v>
@@ -18377,7 +18377,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B514" s="12">
         <v>36</v>
@@ -18404,12 +18404,12 @@
         <v>1</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B515" s="12">
         <v>63</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B516" s="12">
         <v>86</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B517" s="12">
         <v>64</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B518" s="12">
         <v>28</v>
@@ -18532,12 +18532,12 @@
         <v>1</v>
       </c>
       <c r="J518" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B519" s="12">
         <v>7</v>
@@ -18564,12 +18564,12 @@
         <v>0</v>
       </c>
       <c r="J519" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B520" s="12">
         <v>752</v>
@@ -18601,7 +18601,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B521" s="12">
         <v>44</v>
@@ -18628,12 +18628,12 @@
         <v>4</v>
       </c>
       <c r="J521" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B522" s="12">
         <v>110</v>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B523" s="12">
         <v>250</v>
@@ -18697,7 +18697,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B524" s="12">
         <v>151</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B525" s="12">
         <v>33</v>
@@ -18756,12 +18756,12 @@
         <v>2</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B526" s="12">
         <v>1</v>
@@ -18788,12 +18788,12 @@
         <v>0</v>
       </c>
       <c r="J526" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B527" s="12">
         <v>11</v>
@@ -18820,12 +18820,12 @@
         <v>1</v>
       </c>
       <c r="J527" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B528" s="12">
         <v>4</v>
@@ -18852,12 +18852,12 @@
         <v>0</v>
       </c>
       <c r="J528" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B529" s="12">
         <v>4</v>
@@ -18884,12 +18884,12 @@
         <v>0</v>
       </c>
       <c r="J529" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B530" s="12">
         <v>19</v>
@@ -18916,12 +18916,12 @@
         <v>2</v>
       </c>
       <c r="J530" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B531" s="12">
         <v>27</v>
@@ -18948,12 +18948,12 @@
         <v>1</v>
       </c>
       <c r="J531" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B532" s="12">
         <v>30</v>
@@ -18980,12 +18980,12 @@
         <v>0</v>
       </c>
       <c r="J532" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B533" s="12">
         <v>10</v>
@@ -19012,12 +19012,12 @@
         <v>0</v>
       </c>
       <c r="J533" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B534" s="12">
         <v>40</v>
@@ -19044,12 +19044,12 @@
         <v>1</v>
       </c>
       <c r="J534" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B535" s="12">
         <v>944</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B536" s="12">
         <v>9125</v>
@@ -19113,7 +19113,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B537" s="12">
         <v>205</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B538" s="12">
         <v>140</v>
@@ -19177,7 +19177,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B539" s="12">
         <v>30</v>
@@ -19204,12 +19204,12 @@
         <v>2</v>
       </c>
       <c r="J539" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B540" s="12">
         <v>86</v>
@@ -19241,7 +19241,7 @@
     </row>
     <row r="541" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B541" s="12">
         <v>19</v>
@@ -19268,12 +19268,12 @@
         <v>2</v>
       </c>
       <c r="J541" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B542" s="12">
         <v>550</v>
@@ -19305,7 +19305,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B543" s="12">
         <v>3469</v>
@@ -19337,7 +19337,7 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B544" s="12">
         <v>446</v>
@@ -19369,7 +19369,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B545" s="12">
         <v>51</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B546" s="12">
         <v>50</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B547" s="12">
         <v>6</v>
@@ -19460,12 +19460,12 @@
         <v>0</v>
       </c>
       <c r="J547" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B548" s="12">
         <v>52</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B549" s="12">
         <v>15</v>
@@ -19524,12 +19524,12 @@
         <v>1</v>
       </c>
       <c r="J549" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B550" s="12">
         <v>11</v>
@@ -19556,12 +19556,12 @@
         <v>0</v>
       </c>
       <c r="J550" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B551" s="12">
         <v>35</v>
@@ -19588,12 +19588,12 @@
         <v>3</v>
       </c>
       <c r="J551" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B552" s="12">
         <v>6</v>
@@ -19620,12 +19620,12 @@
         <v>1</v>
       </c>
       <c r="J552" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B553" s="12">
         <v>5</v>
@@ -19652,12 +19652,12 @@
         <v>2</v>
       </c>
       <c r="J553" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B554" s="12">
         <v>91</v>
@@ -19689,7 +19689,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B555" s="12">
         <v>99</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B556" s="12">
         <v>29</v>
@@ -19748,12 +19748,12 @@
         <v>1</v>
       </c>
       <c r="J556" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B557" s="12">
         <v>22</v>
@@ -19780,12 +19780,12 @@
         <v>3</v>
       </c>
       <c r="J557" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B558" s="12">
         <v>43</v>
@@ -19812,12 +19812,12 @@
         <v>0</v>
       </c>
       <c r="J558" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B559" s="12">
         <v>7</v>
@@ -19844,12 +19844,12 @@
         <v>1</v>
       </c>
       <c r="J559" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B560" s="12">
         <v>76</v>
@@ -19881,7 +19881,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B561" s="12">
         <v>35</v>
@@ -19908,12 +19908,12 @@
         <v>2</v>
       </c>
       <c r="J561" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B562" s="12">
         <v>6</v>
@@ -19940,12 +19940,12 @@
         <v>1</v>
       </c>
       <c r="J562" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B563" s="12">
         <v>589</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B564" s="12">
         <v>338</v>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B565" s="12">
         <v>1908</v>
@@ -20041,7 +20041,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B566" s="12">
         <v>33</v>
@@ -20068,12 +20068,12 @@
         <v>0</v>
       </c>
       <c r="J566" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B567" s="12">
         <v>505</v>
@@ -20105,7 +20105,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B568" s="12">
         <v>23</v>
@@ -20132,12 +20132,12 @@
         <v>3</v>
       </c>
       <c r="J568" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B569" s="12">
         <v>97</v>
@@ -20169,7 +20169,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B570" s="12">
         <v>1</v>
@@ -20196,12 +20196,12 @@
         <v>0</v>
       </c>
       <c r="J570" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B571" s="12">
         <v>5</v>
@@ -20228,12 +20228,12 @@
         <v>0</v>
       </c>
       <c r="J571" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B572" s="12">
         <v>43</v>
@@ -20260,7 +20260,7 @@
         <v>2</v>
       </c>
       <c r="J572" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.2">
@@ -20279,7 +20279,7 @@
     </row>
     <row r="574" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B574" s="16"/>
       <c r="C574" s="16"/>
